--- a/data/trans_orig/P14B27-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA011634-2C43-4310-89A1-705B9632CF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1698D40-C625-4CEC-839B-D5424FBC3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06BB11D7-4CB0-4381-989A-70C44356FC69}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB82BEE6-2687-43AC-A138-9A82077489B9}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="215">
   <si>
     <t>Población cuyas cataratas le limita en 2012 (Tasa respuesta: 2,21%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>68,79%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>74,21%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>45,25%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,273 +139,279 @@
     <t>33,38%</t>
   </si>
   <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>19,58%</t>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>66,09%</t>
+  </si>
+  <si>
+    <t>48,01%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>30,84%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
   </si>
   <si>
     <t>63,75%</t>
   </si>
   <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>68,77%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>62,93%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>43,72%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
     <t>64,98%</t>
   </si>
   <si>
@@ -421,55 +427,55 @@
     <t>38,99%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>65,3%</t>
+    <t>41,43%</t>
+  </si>
+  <si>
+    <t>65,8%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>58,57%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
   </si>
   <si>
     <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
@@ -478,205 +484,205 @@
     <t>30,44%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
   </si>
   <si>
     <t>41,23%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>37,55%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
   </si>
   <si>
     <t>69,56%</t>
   </si>
   <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
   </si>
   <si>
     <t>58,77%</t>
   </si>
   <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
   </si>
   <si>
     <t>62,45%</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>41,58%</t>
   </si>
   <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>33,53%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
   </si>
   <si>
     <t>58,42%</t>
   </si>
   <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>63,28%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
   </si>
   <si>
     <t>66,47%</t>
   </si>
   <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>74,96%</t>
   </si>
   <si>
     <t>12,02%</t>
   </si>
   <si>
-    <t>40,73%</t>
+    <t>39,3%</t>
   </si>
   <si>
     <t>14,25%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
   </si>
   <si>
     <t>13,28%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
   </si>
   <si>
     <t>87,98%</t>
   </si>
   <si>
-    <t>59,27%</t>
+    <t>60,7%</t>
   </si>
   <si>
     <t>85,75%</t>
   </si>
   <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>86,72%</t>
   </si>
   <si>
-    <t>72,65%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>32,62%</t>
   </si>
   <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
   </si>
   <si>
     <t>35,31%</t>
   </si>
   <si>
-    <t>29,14%</t>
+    <t>41,78%</t>
   </si>
   <si>
     <t>34,26%</t>
   </si>
   <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
   </si>
   <si>
     <t>67,38%</t>
   </si>
   <si>
-    <t>58,9%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
   </si>
   <si>
     <t>64,69%</t>
   </si>
   <si>
-    <t>70,86%</t>
+    <t>58,22%</t>
   </si>
   <si>
     <t>65,74%</t>
   </si>
   <si>
-    <t>60,6%</t>
-  </si>
-  <si>
-    <t>70,09%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1094,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA54B26F-ACD3-4F5B-BF5E-F807D1DBFC28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F98D1CE-67B0-4FAD-B0BC-B91D6FF405BA}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1839,7 +1845,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50697EAD-9961-4F59-ABD3-E27E2F7CD38E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD9B5C-8F73-440C-B6C6-094273A0E9D5}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2279,7 +2285,7 @@
         <v>117</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2288,13 +2294,13 @@
         <v>2116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2303,13 +2309,13 @@
         <v>2116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2327,7 +2333,7 @@
         <v>53</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2339,10 +2345,10 @@
         <v>3927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>53</v>
@@ -2354,10 +2360,10 @@
         <v>7673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>53</v>
@@ -2428,13 +2434,13 @@
         <v>13798</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -2443,13 +2449,13 @@
         <v>43510</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -2458,13 +2464,13 @@
         <v>57308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2485,13 @@
         <v>21590</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -2494,13 +2500,13 @@
         <v>36955</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -2509,13 +2515,13 @@
         <v>58545</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10FC37F-AA8F-4A66-A7BF-DBD721FB4738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68087D0F-D563-431E-9E75-AFC1E5A83852}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2607,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2714,13 +2720,13 @@
         <v>18651</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -2729,13 +2735,13 @@
         <v>48753</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -2744,13 +2750,13 @@
         <v>67404</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2771,13 @@
         <v>42622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -2780,13 +2786,13 @@
         <v>69481</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2795,13 +2801,13 @@
         <v>112102</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2869,13 +2875,13 @@
         <v>16752</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2884,13 +2890,13 @@
         <v>10609</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -2899,13 +2905,13 @@
         <v>27361</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2920,13 +2926,13 @@
         <v>23541</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -2935,13 +2941,13 @@
         <v>30699</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -2950,13 +2956,13 @@
         <v>54240</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,13 +3030,13 @@
         <v>1324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3039,13 +3045,13 @@
         <v>2045</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3054,13 +3060,13 @@
         <v>3369</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3075,10 +3081,10 @@
         <v>9688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>53</v>
@@ -3090,13 +3096,13 @@
         <v>12310</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3105,13 +3111,13 @@
         <v>21997</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,13 +3185,13 @@
         <v>36727</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3194,13 +3200,13 @@
         <v>61407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>55</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -3209,13 +3215,13 @@
         <v>98135</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3230,13 +3236,13 @@
         <v>75850</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -3245,13 +3251,13 @@
         <v>112489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>211</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -3260,13 +3266,13 @@
         <v>188339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B27-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14B27-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1698D40-C625-4CEC-839B-D5424FBC3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BE89D4-112A-4ED8-B60F-732C9A4BBCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EB82BEE6-2687-43AC-A138-9A82077489B9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{49488FD3-1B55-423C-A222-4A72C946D433}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="213">
   <si>
     <t>Población cuyas cataratas le limita en 2012 (Tasa respuesta: 2,21%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>68,79%</t>
   </si>
   <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>64,16%</t>
   </si>
   <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>65,91%</t>
   </si>
   <si>
-    <t>57,4%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>45,25%</t>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>34,09%</t>
   </si>
   <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,49 @@
     <t>33,38%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>65,4%</t>
   </si>
   <si>
     <t>50,8%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>81,91%</t>
   </si>
   <si>
     <t>40,26%</t>
   </si>
   <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
+    <t>20,19%</t>
   </si>
   <si>
     <t>66,62%</t>
   </si>
   <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
   </si>
   <si>
     <t>49,2%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
   </si>
   <si>
     <t>59,74%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
+    <t>79,81%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -208,7 +202,7 @@
     <t>41,44%</t>
   </si>
   <si>
-    <t>81,33%</t>
+    <t>81,57%</t>
   </si>
   <si>
     <t>66,09%</t>
@@ -220,175 +214,175 @@
     <t>58,56%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>18,43%</t>
   </si>
   <si>
     <t>59,52%</t>
   </si>
   <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
   </si>
   <si>
     <t>62,51%</t>
   </si>
   <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
   </si>
   <si>
     <t>40,48%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>54,45%</t>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
   </si>
   <si>
     <t>37,49%</t>
   </si>
   <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>47,89%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>31,17%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuyas cataratas le limita en 2015 (Tasa respuesta: 1,64%)</t>
+    <t>Población cuyas cataratas le limita en 2016 (Tasa respuesta: 1,64%)</t>
   </si>
   <si>
     <t>40,31%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
   </si>
   <si>
     <t>51,67%</t>
   </si>
   <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
+    <t>38,41%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
   </si>
   <si>
     <t>48,7%</t>
   </si>
   <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>59,84%</t>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
   </si>
   <si>
     <t>59,69%</t>
   </si>
   <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>79,13%</t>
   </si>
   <si>
     <t>48,33%</t>
   </si>
   <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>61,59%</t>
   </si>
   <si>
     <t>51,3%</t>
   </si>
   <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
   </si>
   <si>
     <t>49,08%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>60,26%</t>
   </si>
   <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>50,92%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
   </si>
   <si>
     <t>39,74%</t>
   </si>
   <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>59,16%</t>
   </si>
   <si>
     <t>0%</t>
@@ -400,13 +394,13 @@
     <t>35,02%</t>
   </si>
   <si>
-    <t>80,45%</t>
+    <t>80,56%</t>
   </si>
   <si>
     <t>21,62%</t>
   </si>
   <si>
-    <t>54,3%</t>
+    <t>57,98%</t>
   </si>
   <si>
     <t>63,75%</t>
@@ -415,67 +409,67 @@
     <t>64,98%</t>
   </si>
   <si>
-    <t>19,55%</t>
+    <t>19,44%</t>
   </si>
   <si>
     <t>78,38%</t>
   </si>
   <si>
-    <t>45,7%</t>
+    <t>42,02%</t>
   </si>
   <si>
     <t>38,99%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
   </si>
   <si>
     <t>54,07%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>65,8%</t>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>49,47%</t>
   </si>
   <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
   </si>
   <si>
     <t>61,01%</t>
   </si>
   <si>
-    <t>46,32%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
   </si>
   <si>
     <t>45,93%</t>
   </si>
   <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>58,95%</t>
   </si>
   <si>
     <t>50,53%</t>
   </si>
   <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
   </si>
   <si>
     <t>Población cuyas cataratas le limita en 2023 (Tasa respuesta: 5,52%)</t>
@@ -1094,7 +1088,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F98D1CE-67B0-4FAD-B0BC-B91D6FF405BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BC6214-6712-4923-8969-25A8C203DD8B}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1409,7 +1403,7 @@
         <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1424,13 +1418,13 @@
         <v>9837</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -1439,13 +1433,13 @@
         <v>4743</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -1454,13 +1448,13 @@
         <v>14580</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1516,7 +1510,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1528,13 +1522,13 @@
         <v>954</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -1543,13 +1537,13 @@
         <v>1044</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -1558,13 +1552,13 @@
         <v>1998</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,13 +1573,13 @@
         <v>1858</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -1594,13 +1588,13 @@
         <v>964</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1609,13 +1603,13 @@
         <v>2822</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1683,13 +1677,13 @@
         <v>39835</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H13" s="7">
         <v>51</v>
@@ -1698,13 +1692,13 @@
         <v>58065</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>87</v>
@@ -1713,13 +1707,13 @@
         <v>97900</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1734,13 +1728,13 @@
         <v>27096</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -1749,13 +1743,13 @@
         <v>34829</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M14" s="7">
         <v>57</v>
@@ -1764,13 +1758,13 @@
         <v>61925</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1826,7 +1820,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1845,7 +1839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEAD9B5C-8F73-440C-B6C6-094273A0E9D5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9934582C-D204-4C3E-B696-71C731EB7923}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1862,7 +1856,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1969,13 +1963,13 @@
         <v>7953</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="7">
         <v>24</v>
@@ -1984,13 +1978,13 @@
         <v>28781</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M4" s="7">
         <v>33</v>
@@ -1999,13 +1993,13 @@
         <v>36734</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,13 +2014,13 @@
         <v>11778</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>24</v>
@@ -2035,13 +2029,13 @@
         <v>26921</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M5" s="7">
         <v>37</v>
@@ -2050,13 +2044,13 @@
         <v>38699</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2124,13 +2118,13 @@
         <v>5845</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H7" s="7">
         <v>11</v>
@@ -2139,13 +2133,13 @@
         <v>12613</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M7" s="7">
         <v>17</v>
@@ -2154,13 +2148,13 @@
         <v>18458</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2175,13 +2169,13 @@
         <v>6066</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -2190,13 +2184,13 @@
         <v>6108</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -2205,13 +2199,13 @@
         <v>12173</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,7 +2261,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2279,13 +2273,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2294,13 +2288,13 @@
         <v>2116</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -2309,13 +2303,13 @@
         <v>2116</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2330,10 +2324,10 @@
         <v>3747</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>30</v>
@@ -2345,13 +2339,13 @@
         <v>3927</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -2360,13 +2354,13 @@
         <v>7673</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2428,13 @@
         <v>13798</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -2449,13 +2443,13 @@
         <v>43510</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M13" s="7">
         <v>52</v>
@@ -2464,13 +2458,13 @@
         <v>57308</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2479,13 @@
         <v>21590</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H14" s="7">
         <v>33</v>
@@ -2500,13 +2494,13 @@
         <v>36955</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>56</v>
@@ -2515,13 +2509,13 @@
         <v>58545</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2577,7 +2571,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2596,7 +2590,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68087D0F-D563-431E-9E75-AFC1E5A83852}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3CFC05E-B504-43EC-97BE-A260641E1E34}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2613,7 +2607,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2720,13 +2714,13 @@
         <v>18651</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H4" s="7">
         <v>89</v>
@@ -2735,13 +2729,13 @@
         <v>48753</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>119</v>
@@ -2750,13 +2744,13 @@
         <v>67404</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,13 +2765,13 @@
         <v>42622</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>127</v>
@@ -2786,13 +2780,13 @@
         <v>69481</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2801,13 +2795,13 @@
         <v>112102</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2869,13 @@
         <v>16752</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -2890,13 +2884,13 @@
         <v>10609</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M7" s="7">
         <v>40</v>
@@ -2905,13 +2899,13 @@
         <v>27361</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2926,13 +2920,13 @@
         <v>23541</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -2941,13 +2935,13 @@
         <v>30699</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>88</v>
@@ -2956,13 +2950,13 @@
         <v>54240</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +3012,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3030,13 +3024,13 @@
         <v>1324</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -3045,13 +3039,13 @@
         <v>2045</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>6</v>
@@ -3060,13 +3054,13 @@
         <v>3369</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3075,13 @@
         <v>9688</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H11" s="7">
         <v>19</v>
@@ -3096,13 +3090,13 @@
         <v>12310</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -3111,13 +3105,13 @@
         <v>21997</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3179,13 @@
         <v>36727</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>112</v>
@@ -3200,13 +3194,13 @@
         <v>61407</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>165</v>
@@ -3215,13 +3209,13 @@
         <v>98135</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3230,13 @@
         <v>75850</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>200</v>
@@ -3251,13 +3245,13 @@
         <v>112489</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>318</v>
@@ -3266,13 +3260,13 @@
         <v>188339</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3328,7 +3322,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
